--- a/data/pca/factorExposure/factorExposure_2014-12-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.00399389348866803</v>
+        <v>-0.008525584080677469</v>
       </c>
       <c r="C2">
-        <v>0.04918951815256157</v>
+        <v>-0.06426876045274525</v>
       </c>
       <c r="D2">
-        <v>-0.1734620387225334</v>
+        <v>-0.02258620599270392</v>
       </c>
       <c r="E2">
-        <v>0.1185702485076826</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.1650484630180869</v>
+      </c>
+      <c r="F2">
+        <v>0.05557104082390769</v>
+      </c>
+      <c r="G2">
+        <v>-0.1000892122005748</v>
+      </c>
+      <c r="H2">
+        <v>0.06156763295734511</v>
+      </c>
+      <c r="I2">
+        <v>-0.06922538333406503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0159444845598518</v>
+        <v>-0.01280657023194202</v>
       </c>
       <c r="C4">
-        <v>0.1424411007632946</v>
+        <v>-0.1519904913982325</v>
       </c>
       <c r="D4">
-        <v>-0.1042923858931913</v>
+        <v>0.008488616625378673</v>
       </c>
       <c r="E4">
-        <v>0.04944822767634805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.102824015450143</v>
+      </c>
+      <c r="F4">
+        <v>-0.06255644158993151</v>
+      </c>
+      <c r="G4">
+        <v>-0.04504001577264052</v>
+      </c>
+      <c r="H4">
+        <v>0.1032853113100126</v>
+      </c>
+      <c r="I4">
+        <v>0.03084273440519844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.00894130994303678</v>
+        <v>-0.02844058228256363</v>
       </c>
       <c r="C6">
-        <v>0.06341575452218277</v>
+        <v>-0.07129304704396046</v>
       </c>
       <c r="D6">
-        <v>-0.07822521503987627</v>
+        <v>-0.0008426963350352153</v>
       </c>
       <c r="E6">
-        <v>0.07675750378262605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.108107989652998</v>
+      </c>
+      <c r="F6">
+        <v>0.03662822958650654</v>
+      </c>
+      <c r="G6">
+        <v>0.01641879833254613</v>
+      </c>
+      <c r="H6">
+        <v>0.04098755388394319</v>
+      </c>
+      <c r="I6">
+        <v>-0.02825229063675917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01814960049539691</v>
+        <v>-0.004297982823963702</v>
       </c>
       <c r="C7">
-        <v>0.03754013364377531</v>
+        <v>-0.05987002526708479</v>
       </c>
       <c r="D7">
-        <v>-0.05615324264509784</v>
+        <v>-0.004591411002136695</v>
       </c>
       <c r="E7">
-        <v>0.05715342736075356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.06900825857549271</v>
+      </c>
+      <c r="F7">
+        <v>-0.02725356275556036</v>
+      </c>
+      <c r="G7">
+        <v>0.04013241505034475</v>
+      </c>
+      <c r="H7">
+        <v>0.08252977145154587</v>
+      </c>
+      <c r="I7">
+        <v>-0.005180906104918669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.01523488220480126</v>
+        <v>0.009637501315822231</v>
       </c>
       <c r="C8">
-        <v>0.06074249463183715</v>
+        <v>-0.06700221840482426</v>
       </c>
       <c r="D8">
-        <v>-0.07975666365106708</v>
+        <v>0.01911249639339463</v>
       </c>
       <c r="E8">
-        <v>0.09945832200354557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.08511643169495252</v>
+      </c>
+      <c r="F8">
+        <v>-0.02034723671803128</v>
+      </c>
+      <c r="G8">
+        <v>-0.07192802548529661</v>
+      </c>
+      <c r="H8">
+        <v>0.02406381334895017</v>
+      </c>
+      <c r="I8">
+        <v>-0.004252928856971577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.006652224241449486</v>
+        <v>-0.006149346297982368</v>
       </c>
       <c r="C9">
-        <v>0.120719075612685</v>
+        <v>-0.1206793924529938</v>
       </c>
       <c r="D9">
-        <v>-0.08234890031438709</v>
+        <v>0.007172717142699758</v>
       </c>
       <c r="E9">
-        <v>0.05452058490502926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.07502529899159283</v>
+      </c>
+      <c r="F9">
+        <v>-0.01029370158446158</v>
+      </c>
+      <c r="G9">
+        <v>-0.01005836995276882</v>
+      </c>
+      <c r="H9">
+        <v>0.1009138313163388</v>
+      </c>
+      <c r="I9">
+        <v>0.004174708003524438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.2467559931073373</v>
+        <v>-0.2483686885263159</v>
       </c>
       <c r="C10">
-        <v>-0.06691335368552974</v>
+        <v>0.07228709489129369</v>
       </c>
       <c r="D10">
-        <v>-0.002306386458456846</v>
+        <v>0.002052831436202288</v>
       </c>
       <c r="E10">
-        <v>-0.08785613940392632</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01243683351328766</v>
+      </c>
+      <c r="F10">
+        <v>-0.006794991068995851</v>
+      </c>
+      <c r="G10">
+        <v>-0.004850731663010253</v>
+      </c>
+      <c r="H10">
+        <v>0.0309255389712253</v>
+      </c>
+      <c r="I10">
+        <v>0.181924900631257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.0006161426235212865</v>
+        <v>-0.009107519419042028</v>
       </c>
       <c r="C11">
-        <v>0.05180982439397149</v>
+        <v>-0.0759179888320977</v>
       </c>
       <c r="D11">
-        <v>-0.03881079267504291</v>
+        <v>0.01295539359866504</v>
       </c>
       <c r="E11">
-        <v>0.04135174391346495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.04456793148873156</v>
+      </c>
+      <c r="F11">
+        <v>-0.01344581846884789</v>
+      </c>
+      <c r="G11">
+        <v>0.02958844767210346</v>
+      </c>
+      <c r="H11">
+        <v>0.04024375403225269</v>
+      </c>
+      <c r="I11">
+        <v>-0.00468983257258446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.002131007188486794</v>
+        <v>-0.01050987787236604</v>
       </c>
       <c r="C12">
-        <v>0.05027557403273965</v>
+        <v>-0.06009473070854227</v>
       </c>
       <c r="D12">
-        <v>-0.03215766247646404</v>
+        <v>0.002468224235496178</v>
       </c>
       <c r="E12">
-        <v>0.03199909488976829</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03597298806581212</v>
+      </c>
+      <c r="F12">
+        <v>0.01736035461096121</v>
+      </c>
+      <c r="G12">
+        <v>0.03278409433011362</v>
+      </c>
+      <c r="H12">
+        <v>0.04237470428770931</v>
+      </c>
+      <c r="I12">
+        <v>0.006119038986336056</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.00320663075158087</v>
+        <v>-0.0003759717558739927</v>
       </c>
       <c r="C13">
-        <v>0.0678624621456503</v>
+        <v>-0.1031644731788935</v>
       </c>
       <c r="D13">
-        <v>-0.1153092582930456</v>
+        <v>-0.01797673589788214</v>
       </c>
       <c r="E13">
-        <v>0.1254018111647709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1604629471025973</v>
+      </c>
+      <c r="F13">
+        <v>0.09864004781393956</v>
+      </c>
+      <c r="G13">
+        <v>0.04173867232975378</v>
+      </c>
+      <c r="H13">
+        <v>0.09201308070018198</v>
+      </c>
+      <c r="I13">
+        <v>0.08654209384797477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.004389296670789321</v>
+        <v>-0.007110991518297295</v>
       </c>
       <c r="C14">
-        <v>0.04075609823538982</v>
+        <v>-0.06814019104399112</v>
       </c>
       <c r="D14">
-        <v>-0.05833961905926854</v>
+        <v>0.01789996646404484</v>
       </c>
       <c r="E14">
-        <v>0.07358859911654116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.09596737948701489</v>
+      </c>
+      <c r="F14">
+        <v>0.02482692234285001</v>
+      </c>
+      <c r="G14">
+        <v>0.06566829034267972</v>
+      </c>
+      <c r="H14">
+        <v>0.1577798653018804</v>
+      </c>
+      <c r="I14">
+        <v>-0.04168433900259991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001259123194139867</v>
+        <v>0.003105521021256326</v>
       </c>
       <c r="C15">
-        <v>0.05774284592936286</v>
+        <v>-0.06728150402958005</v>
       </c>
       <c r="D15">
-        <v>-0.06717445725988745</v>
+        <v>0.003445601805134777</v>
       </c>
       <c r="E15">
-        <v>0.07214527803651702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.06417788660022741</v>
+      </c>
+      <c r="F15">
+        <v>-0.008658555979860585</v>
+      </c>
+      <c r="G15">
+        <v>0.01209561857884349</v>
+      </c>
+      <c r="H15">
+        <v>0.0523535710198932</v>
+      </c>
+      <c r="I15">
+        <v>-0.01314138708351318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.003959297442834264</v>
+        <v>-0.009620463980963122</v>
       </c>
       <c r="C16">
-        <v>0.04746707078175021</v>
+        <v>-0.06401058309368669</v>
       </c>
       <c r="D16">
-        <v>-0.03100866786138278</v>
+        <v>0.004385130996298892</v>
       </c>
       <c r="E16">
-        <v>0.02927623940106236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.03097516677681147</v>
+      </c>
+      <c r="F16">
+        <v>-0.001532873889673353</v>
+      </c>
+      <c r="G16">
+        <v>0.03204772901937831</v>
+      </c>
+      <c r="H16">
+        <v>0.03716315792800782</v>
+      </c>
+      <c r="I16">
+        <v>0.002990656831471071</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1216,22 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1245,225 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.006221961012998492</v>
+        <v>-0.002337782181884986</v>
       </c>
       <c r="C20">
-        <v>0.05216604390686027</v>
+        <v>-0.07732988212123358</v>
       </c>
       <c r="D20">
-        <v>-0.07575198324980054</v>
+        <v>-0.007805185970015274</v>
       </c>
       <c r="E20">
-        <v>0.04476720448881658</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.06683232811761307</v>
+      </c>
+      <c r="F20">
+        <v>-0.02111180069620621</v>
+      </c>
+      <c r="G20">
+        <v>0.05933001436475242</v>
+      </c>
+      <c r="H20">
+        <v>0.06749512034651385</v>
+      </c>
+      <c r="I20">
+        <v>-0.001303063023344015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.0008072326664681932</v>
+        <v>-0.006237331466286625</v>
       </c>
       <c r="C21">
-        <v>0.0667211378893226</v>
+        <v>-0.07568072037704489</v>
       </c>
       <c r="D21">
-        <v>-0.1101936113612198</v>
+        <v>-0.005342513953787326</v>
       </c>
       <c r="E21">
-        <v>0.05008610606450883</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.09761341790389885</v>
+      </c>
+      <c r="F21">
+        <v>0.07390586933719974</v>
+      </c>
+      <c r="G21">
+        <v>-0.005828277728051811</v>
+      </c>
+      <c r="H21">
+        <v>0.1801329068466445</v>
+      </c>
+      <c r="I21">
+        <v>0.04089838633563152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01574718267963476</v>
+        <v>0.01680794064831697</v>
       </c>
       <c r="C22">
-        <v>0.09766154904241856</v>
+        <v>-0.1291498485021217</v>
       </c>
       <c r="D22">
-        <v>-0.2723784254012684</v>
+        <v>-0.05655485905056364</v>
       </c>
       <c r="E22">
-        <v>0.105019976570367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.3147837559039803</v>
+      </c>
+      <c r="F22">
+        <v>-0.09756741768670738</v>
+      </c>
+      <c r="G22">
+        <v>-0.3230007500058548</v>
+      </c>
+      <c r="H22">
+        <v>-0.4153246203790038</v>
+      </c>
+      <c r="I22">
+        <v>0.03221201686592495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.01620913659374637</v>
+        <v>0.01341850823136398</v>
       </c>
       <c r="C23">
-        <v>0.0992878901506704</v>
+        <v>-0.1334690052732067</v>
       </c>
       <c r="D23">
-        <v>-0.2711950016019316</v>
+        <v>-0.05907967433525461</v>
       </c>
       <c r="E23">
-        <v>0.1042612050292517</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.3094269236564562</v>
+      </c>
+      <c r="F23">
+        <v>-0.09247199439601256</v>
+      </c>
+      <c r="G23">
+        <v>-0.3134306715354893</v>
+      </c>
+      <c r="H23">
+        <v>-0.3877506817554471</v>
+      </c>
+      <c r="I23">
+        <v>0.034577968272955</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.003262244518663528</v>
+        <v>-0.009207367975040823</v>
       </c>
       <c r="C24">
-        <v>0.06479443074852026</v>
+        <v>-0.07446718581529531</v>
       </c>
       <c r="D24">
-        <v>-0.03567799013224549</v>
+        <v>0.01671167039042492</v>
       </c>
       <c r="E24">
-        <v>0.04877430422260871</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04714605080059617</v>
+      </c>
+      <c r="F24">
+        <v>-0.006352145942454019</v>
+      </c>
+      <c r="G24">
+        <v>0.03243620672743264</v>
+      </c>
+      <c r="H24">
+        <v>0.05553721926622614</v>
+      </c>
+      <c r="I24">
+        <v>-0.002359654505633327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.003602805826080838</v>
+        <v>-0.0146521930599684</v>
       </c>
       <c r="C25">
-        <v>0.06473931648551384</v>
+        <v>-0.07411761957569567</v>
       </c>
       <c r="D25">
-        <v>-0.03537353897804973</v>
+        <v>0.008757804516787869</v>
       </c>
       <c r="E25">
-        <v>0.02329657674164092</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03457206469809555</v>
+      </c>
+      <c r="F25">
+        <v>-0.008296639742388603</v>
+      </c>
+      <c r="G25">
+        <v>0.0286188462037824</v>
+      </c>
+      <c r="H25">
+        <v>0.03718241945951226</v>
+      </c>
+      <c r="I25">
+        <v>0.01460016037089823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.003143739345062018</v>
+        <v>-0.01592836708030337</v>
       </c>
       <c r="C26">
-        <v>0.03822385025947825</v>
+        <v>-0.05814690670212424</v>
       </c>
       <c r="D26">
-        <v>-0.04469380808536415</v>
+        <v>0.03592427296239649</v>
       </c>
       <c r="E26">
-        <v>0.06254765101051979</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.06461629145876628</v>
+      </c>
+      <c r="F26">
+        <v>0.001821991335336154</v>
+      </c>
+      <c r="G26">
+        <v>0.01950193736923988</v>
+      </c>
+      <c r="H26">
+        <v>0.1326869881393497</v>
+      </c>
+      <c r="I26">
+        <v>0.0126805827353596</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.3220107336709896</v>
+        <v>-0.3141661085295809</v>
       </c>
       <c r="C28">
-        <v>-0.08194713038149538</v>
+        <v>0.09476330521964109</v>
       </c>
       <c r="D28">
-        <v>-0.004516897918744883</v>
+        <v>-0.0157053725325849</v>
       </c>
       <c r="E28">
-        <v>-0.0755799719268981</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.006530057889958891</v>
+      </c>
+      <c r="F28">
+        <v>-0.03904422959463624</v>
+      </c>
+      <c r="G28">
+        <v>-0.07524521191627408</v>
+      </c>
+      <c r="H28">
+        <v>0.06698070746764995</v>
+      </c>
+      <c r="I28">
+        <v>0.1890865450606046</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.003080607141463625</v>
+        <v>-0.003162398215433934</v>
       </c>
       <c r="C29">
-        <v>0.04311684467821747</v>
+        <v>-0.07108683608736638</v>
       </c>
       <c r="D29">
-        <v>-0.07442395162683425</v>
+        <v>0.01283256221381794</v>
       </c>
       <c r="E29">
-        <v>0.09457805578441708</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1174625749033943</v>
+      </c>
+      <c r="F29">
+        <v>0.03572388013063576</v>
+      </c>
+      <c r="G29">
+        <v>0.09289367798930613</v>
+      </c>
+      <c r="H29">
+        <v>0.1983995252629277</v>
+      </c>
+      <c r="I29">
+        <v>-0.06449835069417131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.01289081612262177</v>
+        <v>-0.01745102178037148</v>
       </c>
       <c r="C30">
-        <v>0.1457093742185636</v>
+        <v>-0.146399064547171</v>
       </c>
       <c r="D30">
-        <v>-0.10926610005111</v>
+        <v>0.01366955690775351</v>
       </c>
       <c r="E30">
-        <v>0.09229111146100007</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.1029503740512177</v>
+      </c>
+      <c r="F30">
+        <v>-0.02277313261405568</v>
+      </c>
+      <c r="G30">
+        <v>-0.02317315810459982</v>
+      </c>
+      <c r="H30">
+        <v>0.03822087932997479</v>
+      </c>
+      <c r="I30">
+        <v>-0.0259976875464375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.00795977277012018</v>
+        <v>-0.004325693501050954</v>
       </c>
       <c r="C31">
-        <v>0.09537593151427333</v>
+        <v>-0.09927893278105013</v>
       </c>
       <c r="D31">
-        <v>0.006438747849713362</v>
+        <v>0.02505542580661336</v>
       </c>
       <c r="E31">
-        <v>0.01936440919047388</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.003113336950305087</v>
+      </c>
+      <c r="F31">
+        <v>-0.0002910306573534295</v>
+      </c>
+      <c r="G31">
+        <v>-0.01992408136418319</v>
+      </c>
+      <c r="H31">
+        <v>0.05595840621963165</v>
+      </c>
+      <c r="I31">
+        <v>0.02456089355449082</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.0119592204443815</v>
+        <v>-0.01758128632600109</v>
       </c>
       <c r="C32">
-        <v>0.0614916866567551</v>
+        <v>-0.06478276835242747</v>
       </c>
       <c r="D32">
-        <v>-0.1271546299627089</v>
+        <v>-0.01991211210489547</v>
       </c>
       <c r="E32">
-        <v>0.04952552381205353</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.109741411271827</v>
+      </c>
+      <c r="F32">
+        <v>0.03066315703422056</v>
+      </c>
+      <c r="G32">
+        <v>-0.03330870753672685</v>
+      </c>
+      <c r="H32">
+        <v>0.1048096297828418</v>
+      </c>
+      <c r="I32">
+        <v>0.217632229130392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.007031469756370482</v>
+        <v>-0.005724033616196743</v>
       </c>
       <c r="C33">
-        <v>0.0803253515149428</v>
+        <v>-0.1065881755484984</v>
       </c>
       <c r="D33">
-        <v>-0.05709515549717373</v>
+        <v>0.001475991385662735</v>
       </c>
       <c r="E33">
-        <v>0.05851291631914715</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.07313975249398845</v>
+      </c>
+      <c r="F33">
+        <v>-0.002496670368403882</v>
+      </c>
+      <c r="G33">
+        <v>0.02760425261971</v>
+      </c>
+      <c r="H33">
+        <v>0.0603171214934193</v>
+      </c>
+      <c r="I33">
+        <v>0.02980521989362674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.002568509327323284</v>
+        <v>-0.009891412891471479</v>
       </c>
       <c r="C34">
-        <v>0.05200846405972762</v>
+        <v>-0.05642531073194455</v>
       </c>
       <c r="D34">
-        <v>-0.01952467523591251</v>
+        <v>0.008889774231010641</v>
       </c>
       <c r="E34">
-        <v>0.02776583974061603</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0246043345934062</v>
+      </c>
+      <c r="F34">
+        <v>0.008243036143358815</v>
+      </c>
+      <c r="G34">
+        <v>0.03138600239532514</v>
+      </c>
+      <c r="H34">
+        <v>0.01433415861644328</v>
+      </c>
+      <c r="I34">
+        <v>0.01651201809334219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>-0.001323272909220709</v>
+        <v>-0.005727149009407322</v>
       </c>
       <c r="C35">
-        <v>0.006872962653721218</v>
+        <v>-0.03360226773693185</v>
       </c>
       <c r="D35">
-        <v>-0.01215223512132973</v>
+        <v>0.001331357182715841</v>
       </c>
       <c r="E35">
-        <v>0.007160824364452137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.04272351970799002</v>
+      </c>
+      <c r="F35">
+        <v>0.005612362210072171</v>
+      </c>
+      <c r="G35">
+        <v>0.03862177904366993</v>
+      </c>
+      <c r="H35">
+        <v>0.1135619332439883</v>
+      </c>
+      <c r="I35">
+        <v>-0.007937814821497087</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0002730620829254116</v>
+        <v>-0.008270615539313455</v>
       </c>
       <c r="C36">
-        <v>0.03375404447496476</v>
+        <v>-0.04581432372572497</v>
       </c>
       <c r="D36">
-        <v>-0.0404636902098713</v>
+        <v>0.02236098137630238</v>
       </c>
       <c r="E36">
-        <v>0.06938570474269758</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.06488689652296557</v>
+      </c>
+      <c r="F36">
+        <v>0.001331973078551744</v>
+      </c>
+      <c r="G36">
+        <v>0.01570748813265898</v>
+      </c>
+      <c r="H36">
+        <v>0.0751888863568726</v>
+      </c>
+      <c r="I36">
+        <v>-1.471366085350929e-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.004677090427420479</v>
+        <v>-0.006153527144820019</v>
       </c>
       <c r="C38">
-        <v>0.04027401984079299</v>
+        <v>-0.0598663282340859</v>
       </c>
       <c r="D38">
-        <v>-0.04381499495401153</v>
+        <v>0.01014768874207933</v>
       </c>
       <c r="E38">
-        <v>0.04630435726080927</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.06660423521126224</v>
+      </c>
+      <c r="F38">
+        <v>-0.0469564917960343</v>
+      </c>
+      <c r="G38">
+        <v>0.001350663359829565</v>
+      </c>
+      <c r="H38">
+        <v>0.0632707112237459</v>
+      </c>
+      <c r="I38">
+        <v>0.03657019281348876</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.001176741299480924</v>
+        <v>-0.0070270348628363</v>
       </c>
       <c r="C39">
-        <v>0.1089496202479324</v>
+        <v>-0.1230113417457846</v>
       </c>
       <c r="D39">
-        <v>-0.07621644068281791</v>
+        <v>0.02194578238150695</v>
       </c>
       <c r="E39">
-        <v>0.07021836829770238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06789523943744279</v>
+      </c>
+      <c r="F39">
+        <v>0.01035204261934791</v>
+      </c>
+      <c r="G39">
+        <v>0.04908805536372805</v>
+      </c>
+      <c r="H39">
+        <v>0.05318790032021867</v>
+      </c>
+      <c r="I39">
+        <v>-0.04438473120153706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.002223048991061895</v>
+        <v>-0.007560813153343093</v>
       </c>
       <c r="C40">
-        <v>0.01079909457053244</v>
+        <v>-0.05247471526385537</v>
       </c>
       <c r="D40">
-        <v>-0.07931918295236262</v>
+        <v>-0.003783107311615643</v>
       </c>
       <c r="E40">
-        <v>0.1127500056143768</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.1361460571000313</v>
+      </c>
+      <c r="F40">
+        <v>0.02394240654318333</v>
+      </c>
+      <c r="G40">
+        <v>0.07208811043205514</v>
+      </c>
+      <c r="H40">
+        <v>-0.001567500756395469</v>
+      </c>
+      <c r="I40">
+        <v>0.0202024013692015</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.003661716021707988</v>
+        <v>-0.01587507505331147</v>
       </c>
       <c r="C41">
-        <v>0.026105239640533</v>
+        <v>-0.05012766111157456</v>
       </c>
       <c r="D41">
-        <v>0.001975716568751494</v>
+        <v>0.00476916877292474</v>
       </c>
       <c r="E41">
-        <v>-0.00926078005572336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001947622173594558</v>
+      </c>
+      <c r="F41">
+        <v>-0.005762686311675104</v>
+      </c>
+      <c r="G41">
+        <v>0.01011554945356287</v>
+      </c>
+      <c r="H41">
+        <v>0.03421957435503085</v>
+      </c>
+      <c r="I41">
+        <v>0.04602954240387982</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.008301251328902011</v>
+        <v>-0.007684489665380359</v>
       </c>
       <c r="C43">
-        <v>0.01283881425980612</v>
+        <v>-0.03933633786124151</v>
       </c>
       <c r="D43">
-        <v>-0.02179815387482417</v>
+        <v>0.01278652595736198</v>
       </c>
       <c r="E43">
-        <v>0.02592744780179736</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.03316768102041178</v>
+      </c>
+      <c r="F43">
+        <v>-0.01547381275110375</v>
+      </c>
+      <c r="G43">
+        <v>0.02128048427731783</v>
+      </c>
+      <c r="H43">
+        <v>0.0493539947264762</v>
+      </c>
+      <c r="I43">
+        <v>0.02079225479170042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.0102108859434695</v>
+        <v>-0.004135261766224506</v>
       </c>
       <c r="C44">
-        <v>0.06287525920073656</v>
+        <v>-0.07893314158903562</v>
       </c>
       <c r="D44">
-        <v>-0.1022037143017959</v>
+        <v>0.02091889157518153</v>
       </c>
       <c r="E44">
-        <v>0.08568963234226282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.1163748435073673</v>
+      </c>
+      <c r="F44">
+        <v>-0.006826821533191564</v>
+      </c>
+      <c r="G44">
+        <v>0.004160310099612555</v>
+      </c>
+      <c r="H44">
+        <v>0.02565716884425423</v>
+      </c>
+      <c r="I44">
+        <v>-0.03297219358425887</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.007687379567227642</v>
+        <v>0.002788686339619456</v>
       </c>
       <c r="C46">
-        <v>0.04565707909032939</v>
+        <v>-0.0610817261527031</v>
       </c>
       <c r="D46">
-        <v>-0.06355329491408654</v>
+        <v>0.01650747932480105</v>
       </c>
       <c r="E46">
-        <v>0.09256456851547429</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.07747039670034216</v>
+      </c>
+      <c r="F46">
+        <v>-0.002284685439027002</v>
+      </c>
+      <c r="G46">
+        <v>0.05203065438964931</v>
+      </c>
+      <c r="H46">
+        <v>0.1205912015484063</v>
+      </c>
+      <c r="I46">
+        <v>-0.01797770443591403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.008406393480291215</v>
+        <v>-0.01792645959993589</v>
       </c>
       <c r="C47">
-        <v>0.1310988918688234</v>
+        <v>-0.1112500626499019</v>
       </c>
       <c r="D47">
-        <v>0.02089635162106086</v>
+        <v>0.02773824804051418</v>
       </c>
       <c r="E47">
-        <v>-0.03586545382844084</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.0229349427966083</v>
+      </c>
+      <c r="F47">
+        <v>-0.003645513826410166</v>
+      </c>
+      <c r="G47">
+        <v>-0.01140822484383501</v>
+      </c>
+      <c r="H47">
+        <v>0.08011238155345594</v>
+      </c>
+      <c r="I47">
+        <v>0.04660111934454303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.00544820130409781</v>
+        <v>-0.01396056492658343</v>
       </c>
       <c r="C48">
-        <v>0.03445367740448536</v>
+        <v>-0.05016427375855739</v>
       </c>
       <c r="D48">
-        <v>-0.02933561941221182</v>
+        <v>0.03321603636926519</v>
       </c>
       <c r="E48">
-        <v>0.08478771924401859</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.06696348062685407</v>
+      </c>
+      <c r="F48">
+        <v>-0.004822294014625996</v>
+      </c>
+      <c r="G48">
+        <v>0.01851586333816611</v>
+      </c>
+      <c r="H48">
+        <v>0.1248359655122213</v>
+      </c>
+      <c r="I48">
+        <v>-0.005480878657547455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.004447429894683245</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.009308990679447389</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.007868845079389983</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.0004332052660466652</v>
+      </c>
+      <c r="F49">
+        <v>0.006509510386843866</v>
+      </c>
+      <c r="G49">
+        <v>0.02011166885118075</v>
+      </c>
+      <c r="H49">
+        <v>-0.01182896855421913</v>
+      </c>
+      <c r="I49">
+        <v>-0.001600419270159711</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.004957428329669212</v>
+        <v>-0.01034093378805552</v>
       </c>
       <c r="C50">
-        <v>0.09088294856671632</v>
+        <v>-0.09084454319875879</v>
       </c>
       <c r="D50">
-        <v>-0.005079814427278275</v>
+        <v>0.009636019061828141</v>
       </c>
       <c r="E50">
-        <v>0.002971271620124977</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.002432741443875104</v>
+      </c>
+      <c r="F50">
+        <v>-0.01530904788570443</v>
+      </c>
+      <c r="G50">
+        <v>-0.02256614507341398</v>
+      </c>
+      <c r="H50">
+        <v>0.06323027604117396</v>
+      </c>
+      <c r="I50">
+        <v>0.05426730970921389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.006481854778143823</v>
+        <v>0.004192637152632113</v>
       </c>
       <c r="C51">
-        <v>0.0413428496795856</v>
+        <v>-0.03646437409505072</v>
       </c>
       <c r="D51">
-        <v>-0.07832152082289594</v>
+        <v>0.002793118361513998</v>
       </c>
       <c r="E51">
-        <v>0.05585714755402555</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.06227000086150851</v>
+      </c>
+      <c r="F51">
+        <v>0.003476905981866083</v>
+      </c>
+      <c r="G51">
+        <v>-0.002363154249010537</v>
+      </c>
+      <c r="H51">
+        <v>0.1079639979370566</v>
+      </c>
+      <c r="I51">
+        <v>-0.02591661656204449</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.04644242404733692</v>
+        <v>-0.05148677769797343</v>
       </c>
       <c r="C53">
-        <v>0.165733403324293</v>
+        <v>-0.1526582300960563</v>
       </c>
       <c r="D53">
-        <v>0.05835952643257371</v>
+        <v>0.04683210878990564</v>
       </c>
       <c r="E53">
-        <v>-0.02969124440826941</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.0883514163051375</v>
+      </c>
+      <c r="F53">
+        <v>-0.009251149568382001</v>
+      </c>
+      <c r="G53">
+        <v>-0.03353553850017606</v>
+      </c>
+      <c r="H53">
+        <v>0.01356860812749381</v>
+      </c>
+      <c r="I53">
+        <v>0.02059720377955771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.00343122512668865</v>
+        <v>-0.01225194623924753</v>
       </c>
       <c r="C54">
-        <v>0.03525670220108879</v>
+        <v>-0.05978934692277284</v>
       </c>
       <c r="D54">
-        <v>-0.06943973314645506</v>
+        <v>-0.01763478434735181</v>
       </c>
       <c r="E54">
-        <v>0.02498530930755083</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0529583986087046</v>
+      </c>
+      <c r="F54">
+        <v>-0.01081583364449317</v>
+      </c>
+      <c r="G54">
+        <v>0.0122785639430086</v>
+      </c>
+      <c r="H54">
+        <v>0.09104449507604716</v>
+      </c>
+      <c r="I54">
+        <v>-0.03679977542579177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.03450876409171912</v>
+        <v>-0.03177899293807503</v>
       </c>
       <c r="C55">
-        <v>0.1341316565914327</v>
+        <v>-0.1121750622525229</v>
       </c>
       <c r="D55">
-        <v>0.05599714732727759</v>
+        <v>0.05067656318599208</v>
       </c>
       <c r="E55">
-        <v>-0.01052646817893379</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.07287910990766769</v>
+      </c>
+      <c r="F55">
+        <v>0.004018606180572506</v>
+      </c>
+      <c r="G55">
+        <v>-0.02506582338165096</v>
+      </c>
+      <c r="H55">
+        <v>0.0218693417598489</v>
+      </c>
+      <c r="I55">
+        <v>-0.0164939994723573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.05030678542463478</v>
+        <v>-0.04563288564808117</v>
       </c>
       <c r="C56">
-        <v>0.2026148466728653</v>
+        <v>-0.1825236009472851</v>
       </c>
       <c r="D56">
-        <v>0.08283397979958744</v>
+        <v>0.07103476030774898</v>
       </c>
       <c r="E56">
-        <v>-0.0574788444238893</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.1276797939916742</v>
+      </c>
+      <c r="F56">
+        <v>-0.001234256622481549</v>
+      </c>
+      <c r="G56">
+        <v>-0.07597442873520154</v>
+      </c>
+      <c r="H56">
+        <v>0.004613329651970253</v>
+      </c>
+      <c r="I56">
+        <v>0.01742184285800883</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01110450468601313</v>
+        <v>-0.008262255574839972</v>
       </c>
       <c r="C58">
-        <v>0.1418957963208129</v>
+        <v>-0.1576382208743475</v>
       </c>
       <c r="D58">
-        <v>-0.2800030434766012</v>
+        <v>-0.04157637521486945</v>
       </c>
       <c r="E58">
-        <v>0.09639365350127911</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.2571175542800528</v>
+      </c>
+      <c r="F58">
+        <v>-0.05036139938966144</v>
+      </c>
+      <c r="G58">
+        <v>-0.2363644594272828</v>
+      </c>
+      <c r="H58">
+        <v>-0.006716800352251314</v>
+      </c>
+      <c r="I58">
+        <v>-0.03311623417057333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.2540393987363859</v>
+        <v>-0.2741279017869918</v>
       </c>
       <c r="C59">
-        <v>-0.01997410332385998</v>
+        <v>0.03238931452543887</v>
       </c>
       <c r="D59">
-        <v>-0.07001580455692977</v>
+        <v>-0.01485997264674535</v>
       </c>
       <c r="E59">
-        <v>-0.0008387337869372798</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04660070082583977</v>
+      </c>
+      <c r="F59">
+        <v>0.02044327030320896</v>
+      </c>
+      <c r="G59">
+        <v>-0.01732211889714786</v>
+      </c>
+      <c r="H59">
+        <v>-0.02049641657039932</v>
+      </c>
+      <c r="I59">
+        <v>0.1011775029120049</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1160265249773744</v>
+        <v>-0.1440131571517111</v>
       </c>
       <c r="C60">
-        <v>0.1643477772856754</v>
+        <v>-0.1699603244279872</v>
       </c>
       <c r="D60">
-        <v>0.007029948961658909</v>
+        <v>0.02241218115177978</v>
       </c>
       <c r="E60">
-        <v>0.04518593682123769</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.003094233727758448</v>
+      </c>
+      <c r="F60">
+        <v>0.09658300276170731</v>
+      </c>
+      <c r="G60">
+        <v>0.2745394659524432</v>
+      </c>
+      <c r="H60">
+        <v>-0.2794690849065488</v>
+      </c>
+      <c r="I60">
+        <v>-0.06016056675455998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.005412462783573073</v>
+        <v>-0.01349420231291552</v>
       </c>
       <c r="C61">
-        <v>0.07741670774903238</v>
+        <v>-0.1003325706714915</v>
       </c>
       <c r="D61">
-        <v>-0.04228285949014469</v>
+        <v>0.02161461268110805</v>
       </c>
       <c r="E61">
-        <v>0.05880744659515397</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.05117158974069488</v>
+      </c>
+      <c r="F61">
+        <v>-0.0008373712895736909</v>
+      </c>
+      <c r="G61">
+        <v>0.05534092085573397</v>
+      </c>
+      <c r="H61">
+        <v>0.05776705697582752</v>
+      </c>
+      <c r="I61">
+        <v>-0.01945308668295104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0005270894448513615</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0006151213908105555</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.001524171082482789</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-9.767778438754962e-05</v>
+      </c>
+      <c r="F62">
+        <v>-0.001234572968476483</v>
+      </c>
+      <c r="G62">
+        <v>-0.002054405049928138</v>
+      </c>
+      <c r="H62">
+        <v>0.005559814078295273</v>
+      </c>
+      <c r="I62">
+        <v>0.002635285441778059</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.008548934897168455</v>
+        <v>-0.01421223541424907</v>
       </c>
       <c r="C63">
-        <v>0.05106705618254129</v>
+        <v>-0.07076235912732988</v>
       </c>
       <c r="D63">
-        <v>-0.03991699911654798</v>
+        <v>0.0257001650422388</v>
       </c>
       <c r="E63">
-        <v>0.03696639120045497</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.04955464895861602</v>
+      </c>
+      <c r="F63">
+        <v>0.003046767988092676</v>
+      </c>
+      <c r="G63">
+        <v>0.03429038903418731</v>
+      </c>
+      <c r="H63">
+        <v>0.07665459770390318</v>
+      </c>
+      <c r="I63">
+        <v>0.01730808244627796</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.002707499072631272</v>
+        <v>-0.00970373133112702</v>
       </c>
       <c r="C64">
-        <v>0.1295445960022695</v>
+        <v>-0.1096887844595313</v>
       </c>
       <c r="D64">
-        <v>0.01289576299126326</v>
+        <v>0.02222503354721721</v>
       </c>
       <c r="E64">
-        <v>0.04179455287406973</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.008589959597505487</v>
+      </c>
+      <c r="F64">
+        <v>-0.02856944022114112</v>
+      </c>
+      <c r="G64">
+        <v>0.01983556339389953</v>
+      </c>
+      <c r="H64">
+        <v>-0.002629533010294961</v>
+      </c>
+      <c r="I64">
+        <v>0.01823771265649235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.01192911695127636</v>
+        <v>-0.02323698205063497</v>
       </c>
       <c r="C65">
-        <v>0.06797747663848723</v>
+        <v>-0.0861495098437359</v>
       </c>
       <c r="D65">
-        <v>-0.06441340234944828</v>
+        <v>-0.01004249980941559</v>
       </c>
       <c r="E65">
-        <v>0.06027849841563721</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.09196011822158219</v>
+      </c>
+      <c r="F65">
+        <v>-0.01035161707875589</v>
+      </c>
+      <c r="G65">
+        <v>0.07023716810785588</v>
+      </c>
+      <c r="H65">
+        <v>-0.007533561148429717</v>
+      </c>
+      <c r="I65">
+        <v>-0.02897653325366625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.003582914001045555</v>
+        <v>-0.004864627773261595</v>
       </c>
       <c r="C66">
-        <v>0.1279412974496594</v>
+        <v>-0.1512113971554061</v>
       </c>
       <c r="D66">
-        <v>-0.1100210339817672</v>
+        <v>0.001224812898407358</v>
       </c>
       <c r="E66">
-        <v>0.0811334644748191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.08777715501015664</v>
+      </c>
+      <c r="F66">
+        <v>0.001910160689654743</v>
+      </c>
+      <c r="G66">
+        <v>0.02363046108168899</v>
+      </c>
+      <c r="H66">
+        <v>0.05202902911009635</v>
+      </c>
+      <c r="I66">
+        <v>-0.03848787939773864</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.01480672099158726</v>
+        <v>-0.01662174732075974</v>
       </c>
       <c r="C67">
-        <v>0.04012858656398405</v>
+        <v>-0.05607291709479439</v>
       </c>
       <c r="D67">
-        <v>0.006448870236787868</v>
+        <v>0.02427663019641926</v>
       </c>
       <c r="E67">
-        <v>0.03434271166504951</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.03044786069171414</v>
+      </c>
+      <c r="F67">
+        <v>-0.03935791789407226</v>
+      </c>
+      <c r="G67">
+        <v>0.03367843064985145</v>
+      </c>
+      <c r="H67">
+        <v>0.04121571438824079</v>
+      </c>
+      <c r="I67">
+        <v>0.02300288807240333</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.2560167511082059</v>
+        <v>-0.2843452715414376</v>
       </c>
       <c r="C68">
-        <v>-0.02802751541514379</v>
+        <v>0.03582960092473137</v>
       </c>
       <c r="D68">
-        <v>-0.05352544765450353</v>
+        <v>-0.036434447186099</v>
       </c>
       <c r="E68">
-        <v>-0.01208933176497249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.04227582819008646</v>
+      </c>
+      <c r="F68">
+        <v>-0.003830844744128126</v>
+      </c>
+      <c r="G68">
+        <v>-0.05483859986184482</v>
+      </c>
+      <c r="H68">
+        <v>-0.02411227684911259</v>
+      </c>
+      <c r="I68">
+        <v>0.09609569835841537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.01025075406006349</v>
+        <v>-0.007460529077845539</v>
       </c>
       <c r="C69">
-        <v>0.1260699463201571</v>
+        <v>-0.09167175716869344</v>
       </c>
       <c r="D69">
-        <v>0.03575118566377169</v>
+        <v>0.02558090579016479</v>
       </c>
       <c r="E69">
-        <v>0.01173174224883502</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02385951922017838</v>
+      </c>
+      <c r="F69">
+        <v>-0.007238263574432812</v>
+      </c>
+      <c r="G69">
+        <v>-0.002669543041579289</v>
+      </c>
+      <c r="H69">
+        <v>0.05098342821320808</v>
+      </c>
+      <c r="I69">
+        <v>0.04651000579470783</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.2693561933087273</v>
+        <v>-0.2730880052453815</v>
       </c>
       <c r="C71">
-        <v>-0.05552468931058659</v>
+        <v>0.06262796859660894</v>
       </c>
       <c r="D71">
-        <v>-0.05303887359615907</v>
+        <v>-0.02229257645165379</v>
       </c>
       <c r="E71">
-        <v>-0.03160986763807223</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.04440828506619509</v>
+      </c>
+      <c r="F71">
+        <v>-0.03181107908482904</v>
+      </c>
+      <c r="G71">
+        <v>-0.008364753237430807</v>
+      </c>
+      <c r="H71">
+        <v>0.06383087444122827</v>
+      </c>
+      <c r="I71">
+        <v>0.112896402997422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.05442319788854954</v>
+        <v>-0.05623532145058311</v>
       </c>
       <c r="C72">
-        <v>0.1728549312794732</v>
+        <v>-0.1583157309198627</v>
       </c>
       <c r="D72">
-        <v>-0.02111022643369602</v>
+        <v>0.01527268181936987</v>
       </c>
       <c r="E72">
-        <v>0.1041653632277348</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.008245630013546496</v>
+      </c>
+      <c r="F72">
+        <v>0.01122652023810185</v>
+      </c>
+      <c r="G72">
+        <v>0.04155866294478873</v>
+      </c>
+      <c r="H72">
+        <v>-0.04606264747776598</v>
+      </c>
+      <c r="I72">
+        <v>-0.09297537639113441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.09147609424483218</v>
+        <v>-0.1423218173271053</v>
       </c>
       <c r="C73">
-        <v>0.166721606137237</v>
+        <v>-0.2072748018700656</v>
       </c>
       <c r="D73">
-        <v>0.02921279036173111</v>
+        <v>0.03987820279425337</v>
       </c>
       <c r="E73">
-        <v>0.06510967828978707</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.005412280437484775</v>
+      </c>
+      <c r="F73">
+        <v>0.09960114963158521</v>
+      </c>
+      <c r="G73">
+        <v>0.4506910325323348</v>
+      </c>
+      <c r="H73">
+        <v>-0.2746130906840936</v>
+      </c>
+      <c r="I73">
+        <v>0.02333336378730268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.03787249382040069</v>
+        <v>-0.03895671795666258</v>
       </c>
       <c r="C74">
-        <v>0.1253837070409449</v>
+        <v>-0.1177131676917072</v>
       </c>
       <c r="D74">
-        <v>0.0825626622025217</v>
+        <v>0.04707745511223051</v>
       </c>
       <c r="E74">
-        <v>-0.01564630415038063</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.07490738873934598</v>
+      </c>
+      <c r="F74">
+        <v>-0.01084238621886635</v>
+      </c>
+      <c r="G74">
+        <v>-0.01929455185433764</v>
+      </c>
+      <c r="H74">
+        <v>0.0186728835700464</v>
+      </c>
+      <c r="I74">
+        <v>-0.01240118891196612</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.09253384698292179</v>
+        <v>-0.06886987138599122</v>
       </c>
       <c r="C75">
-        <v>0.2467787038237417</v>
+        <v>-0.2099676368429277</v>
       </c>
       <c r="D75">
-        <v>0.190049331635724</v>
+        <v>0.09509230567773061</v>
       </c>
       <c r="E75">
-        <v>-0.08865903694121388</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.2238274733631707</v>
+      </c>
+      <c r="F75">
+        <v>-0.08778679720122096</v>
+      </c>
+      <c r="G75">
+        <v>-0.09277033120785058</v>
+      </c>
+      <c r="H75">
+        <v>-0.009913368955400069</v>
+      </c>
+      <c r="I75">
+        <v>0.06735101038689553</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.04031595898881785</v>
+        <v>-0.03879350274261685</v>
       </c>
       <c r="C76">
-        <v>0.1592259941276817</v>
+        <v>-0.1500298228855914</v>
       </c>
       <c r="D76">
-        <v>0.0855290419970572</v>
+        <v>0.07266213561486302</v>
       </c>
       <c r="E76">
-        <v>-0.01806259615125246</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.09733825358442083</v>
+      </c>
+      <c r="F76">
+        <v>-0.00386016873832566</v>
+      </c>
+      <c r="G76">
+        <v>-0.003178396939225776</v>
+      </c>
+      <c r="H76">
+        <v>0.02421479575950292</v>
+      </c>
+      <c r="I76">
+        <v>0.003514604788464164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01604071426342343</v>
+        <v>-0.01657093268352005</v>
       </c>
       <c r="C77">
-        <v>0.1344045948669834</v>
+        <v>-0.2189362629833425</v>
       </c>
       <c r="D77">
-        <v>-0.4772177649523532</v>
+        <v>-0.9412688868293138</v>
       </c>
       <c r="E77">
-        <v>-0.7882065393428359</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.2116791408425866</v>
+      </c>
+      <c r="F77">
+        <v>-0.03073850881382565</v>
+      </c>
+      <c r="G77">
+        <v>0.02457465020700827</v>
+      </c>
+      <c r="H77">
+        <v>0.05143328353160171</v>
+      </c>
+      <c r="I77">
+        <v>-0.02813941067197514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.01596121225638457</v>
+        <v>-0.02164290294038172</v>
       </c>
       <c r="C78">
-        <v>0.142370216808222</v>
+        <v>-0.1252969601675998</v>
       </c>
       <c r="D78">
-        <v>-0.1115552673667976</v>
+        <v>0.04728879427389093</v>
       </c>
       <c r="E78">
-        <v>0.0690429289926867</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.05924297931739859</v>
+      </c>
+      <c r="F78">
+        <v>0.0201487389248633</v>
+      </c>
+      <c r="G78">
+        <v>-0.08148186605447683</v>
+      </c>
+      <c r="H78">
+        <v>0.1449854504254752</v>
+      </c>
+      <c r="I78">
+        <v>-0.1173042082630268</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.05823721901998034</v>
+        <v>-0.05513097243798026</v>
       </c>
       <c r="C79">
-        <v>0.2893900715046923</v>
+        <v>-0.2149574770087881</v>
       </c>
       <c r="D79">
-        <v>0.2065190975526461</v>
+        <v>0.08784011430911647</v>
       </c>
       <c r="E79">
-        <v>-0.1065114700734824</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.2377004444433772</v>
+      </c>
+      <c r="F79">
+        <v>-0.01097370805066746</v>
+      </c>
+      <c r="G79">
+        <v>-0.1696461075946893</v>
+      </c>
+      <c r="H79">
+        <v>0.04175698023874317</v>
+      </c>
+      <c r="I79">
+        <v>0.0792250740167828</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.01236653117371576</v>
+        <v>-0.006822372672043595</v>
       </c>
       <c r="C80">
-        <v>0.06210046083842867</v>
+        <v>-0.0613332658377741</v>
       </c>
       <c r="D80">
-        <v>0.0003606409928865809</v>
+        <v>0.03524060453333346</v>
       </c>
       <c r="E80">
-        <v>0.04316372159181735</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04793888714415229</v>
+      </c>
+      <c r="F80">
+        <v>0.07029547640805847</v>
+      </c>
+      <c r="G80">
+        <v>0.04488775024029779</v>
+      </c>
+      <c r="H80">
+        <v>-0.03850110926859711</v>
+      </c>
+      <c r="I80">
+        <v>0.05198813065131481</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.03172749434817903</v>
+        <v>-0.02110974954734368</v>
       </c>
       <c r="C81">
-        <v>0.1475998124481972</v>
+        <v>-0.1297152730037998</v>
       </c>
       <c r="D81">
-        <v>0.1160470626251927</v>
+        <v>0.0495071449689895</v>
       </c>
       <c r="E81">
-        <v>-0.05987372769067386</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.1031816575364435</v>
+      </c>
+      <c r="F81">
+        <v>-0.01571072246719343</v>
+      </c>
+      <c r="G81">
+        <v>-0.06142970087497406</v>
+      </c>
+      <c r="H81">
+        <v>0.06896816774976543</v>
+      </c>
+      <c r="I81">
+        <v>0.08018983484997308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.06299785545082734</v>
+        <v>-0.05133893066087683</v>
       </c>
       <c r="C82">
-        <v>0.1881567689592499</v>
+        <v>-0.1510549495373204</v>
       </c>
       <c r="D82">
-        <v>0.1386414371877671</v>
+        <v>0.08200940487329236</v>
       </c>
       <c r="E82">
-        <v>-0.03312684092358965</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1314830564760398</v>
+      </c>
+      <c r="F82">
+        <v>-0.004597715447155126</v>
+      </c>
+      <c r="G82">
+        <v>-0.03433445458353365</v>
+      </c>
+      <c r="H82">
+        <v>0.03448188867066374</v>
+      </c>
+      <c r="I82">
+        <v>0.04347179912729967</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.001055442639780498</v>
+        <v>-0.0005838035733143493</v>
       </c>
       <c r="C83">
-        <v>0.06818806158913709</v>
+        <v>-0.01845622734945407</v>
       </c>
       <c r="D83">
-        <v>-0.05137241478309414</v>
+        <v>-0.03871037541235293</v>
       </c>
       <c r="E83">
-        <v>-0.01745737152824405</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>7.535805190074993e-05</v>
+      </c>
+      <c r="F83">
+        <v>0.9365795376700577</v>
+      </c>
+      <c r="G83">
+        <v>-0.2108141422252108</v>
+      </c>
+      <c r="H83">
+        <v>-0.02036329965351981</v>
+      </c>
+      <c r="I83">
+        <v>0.1091881931918814</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.003936358718243064</v>
+        <v>0.001847897118754561</v>
       </c>
       <c r="C84">
-        <v>0.02508195957692625</v>
+        <v>-0.0373969021442747</v>
       </c>
       <c r="D84">
-        <v>-0.03794003273709771</v>
+        <v>0.03973939247824647</v>
       </c>
       <c r="E84">
-        <v>0.06229431394918199</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.07285049256659593</v>
+      </c>
+      <c r="F84">
+        <v>-0.04668144594907494</v>
+      </c>
+      <c r="G84">
+        <v>-0.05962057736218892</v>
+      </c>
+      <c r="H84">
+        <v>0.06424271994798302</v>
+      </c>
+      <c r="I84">
+        <v>-0.05092724367564084</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.04716847356276133</v>
+        <v>-0.03479553753350071</v>
       </c>
       <c r="C85">
-        <v>0.1905943891983542</v>
+        <v>-0.1521946917596935</v>
       </c>
       <c r="D85">
-        <v>0.1387488170760943</v>
+        <v>0.08963088842387021</v>
       </c>
       <c r="E85">
-        <v>-0.04242496788360423</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1705061700341673</v>
+      </c>
+      <c r="F85">
+        <v>-0.01415922298209388</v>
+      </c>
+      <c r="G85">
+        <v>-0.07648374143641921</v>
+      </c>
+      <c r="H85">
+        <v>0.02588087820598243</v>
+      </c>
+      <c r="I85">
+        <v>0.0395387092601392</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.017859284250207</v>
+        <v>-0.01331354654749327</v>
       </c>
       <c r="C86">
-        <v>0.05006222289677344</v>
+        <v>-0.07237203678867908</v>
       </c>
       <c r="D86">
-        <v>-0.09352627375659611</v>
+        <v>-0.01493011150390291</v>
       </c>
       <c r="E86">
-        <v>-0.03775611461913513</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.05959074528847977</v>
+      </c>
+      <c r="F86">
+        <v>-0.0419082234432716</v>
+      </c>
+      <c r="G86">
+        <v>-0.07833670135417524</v>
+      </c>
+      <c r="H86">
+        <v>0.07544573856651643</v>
+      </c>
+      <c r="I86">
+        <v>0.0856829608963012</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01429052203595686</v>
+        <v>-0.01259230008299078</v>
       </c>
       <c r="C87">
-        <v>0.1105198260402215</v>
+        <v>-0.1208301719046452</v>
       </c>
       <c r="D87">
-        <v>-0.1435266933948482</v>
+        <v>-0.03081492094673727</v>
       </c>
       <c r="E87">
-        <v>0.06878293224099344</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.1110816668471635</v>
+      </c>
+      <c r="F87">
+        <v>-0.01215152074028066</v>
+      </c>
+      <c r="G87">
+        <v>-0.03772786536311718</v>
+      </c>
+      <c r="H87">
+        <v>0.02232996821149888</v>
+      </c>
+      <c r="I87">
+        <v>-0.1340512237255665</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.01799968550458656</v>
+        <v>-0.03227672832421701</v>
       </c>
       <c r="C88">
-        <v>0.08393907287358068</v>
+        <v>-0.08767661689714558</v>
       </c>
       <c r="D88">
-        <v>0.05138819790572907</v>
+        <v>0.02749972815264243</v>
       </c>
       <c r="E88">
-        <v>0.006272892137294175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.0160264770050117</v>
+      </c>
+      <c r="F88">
+        <v>-0.01027166632406581</v>
+      </c>
+      <c r="G88">
+        <v>0.02316451526224073</v>
+      </c>
+      <c r="H88">
+        <v>0.01050867637949232</v>
+      </c>
+      <c r="I88">
+        <v>0.02519617455302896</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.4575864918091203</v>
+        <v>-0.4140893250352518</v>
       </c>
       <c r="C89">
-        <v>-0.1121377099863778</v>
+        <v>0.1192703695707874</v>
       </c>
       <c r="D89">
-        <v>0.01202160352446722</v>
+        <v>-0.009686525027740527</v>
       </c>
       <c r="E89">
-        <v>0.2493470852346268</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.03734298768120046</v>
+      </c>
+      <c r="F89">
+        <v>0.08387741668709021</v>
+      </c>
+      <c r="G89">
+        <v>-0.1005533043988924</v>
+      </c>
+      <c r="H89">
+        <v>0.05349860138837689</v>
+      </c>
+      <c r="I89">
+        <v>-0.7810617933314298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.3315522894523812</v>
+        <v>-0.3264044168272685</v>
       </c>
       <c r="C90">
-        <v>-0.06039234123122248</v>
+        <v>0.06504217211969479</v>
       </c>
       <c r="D90">
-        <v>-0.08387074261374997</v>
+        <v>-0.0231550312245852</v>
       </c>
       <c r="E90">
-        <v>-0.01480467613731023</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.04657837357594301</v>
+      </c>
+      <c r="F90">
+        <v>-0.01398140452152115</v>
+      </c>
+      <c r="G90">
+        <v>-0.02006616522517783</v>
+      </c>
+      <c r="H90">
+        <v>-0.01380852968926395</v>
+      </c>
+      <c r="I90">
+        <v>0.161020269961848</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.04616550944061942</v>
+        <v>-0.05047985024846387</v>
       </c>
       <c r="C91">
-        <v>0.1723486359666928</v>
+        <v>-0.1369502545138067</v>
       </c>
       <c r="D91">
-        <v>0.1118593608728787</v>
+        <v>0.04766910599901034</v>
       </c>
       <c r="E91">
-        <v>-0.06651085772317732</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1304862152088741</v>
+      </c>
+      <c r="F91">
+        <v>0.02894515267071197</v>
+      </c>
+      <c r="G91">
+        <v>-0.0562825962342075</v>
+      </c>
+      <c r="H91">
+        <v>0.01048083150970242</v>
+      </c>
+      <c r="I91">
+        <v>0.02603633456582149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.3479571195230635</v>
+        <v>-0.3507040935453178</v>
       </c>
       <c r="C92">
-        <v>-0.1082572805750338</v>
+        <v>0.1140334486947924</v>
       </c>
       <c r="D92">
-        <v>-0.06565098174698822</v>
+        <v>-0.05135088153471547</v>
       </c>
       <c r="E92">
-        <v>-0.04381772862344859</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.05883611443095914</v>
+      </c>
+      <c r="F92">
+        <v>-0.09522152778179452</v>
+      </c>
+      <c r="G92">
+        <v>-0.02672194702071641</v>
+      </c>
+      <c r="H92">
+        <v>0.03754718060895746</v>
+      </c>
+      <c r="I92">
+        <v>0.1614098164113421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.3408777559754163</v>
+        <v>-0.3286694326468214</v>
       </c>
       <c r="C93">
-        <v>-0.08476083957956047</v>
+        <v>0.1037860192941665</v>
       </c>
       <c r="D93">
-        <v>0.01607392490560082</v>
+        <v>0.005226332032702204</v>
       </c>
       <c r="E93">
-        <v>-0.01994010664183964</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.008435892581108185</v>
+      </c>
+      <c r="F93">
+        <v>-0.01807147799096382</v>
+      </c>
+      <c r="G93">
+        <v>-0.03306294158756739</v>
+      </c>
+      <c r="H93">
+        <v>0.04277531025921535</v>
+      </c>
+      <c r="I93">
+        <v>0.106368579856562</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.09673191996727783</v>
+        <v>-0.0859263641502524</v>
       </c>
       <c r="C94">
-        <v>0.283322180835006</v>
+        <v>-0.2275628890809322</v>
       </c>
       <c r="D94">
-        <v>0.2831331864683678</v>
+        <v>0.140913165184584</v>
       </c>
       <c r="E94">
-        <v>-0.09640130607132405</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.3799462173849392</v>
+      </c>
+      <c r="F94">
+        <v>-0.03806710629063523</v>
+      </c>
+      <c r="G94">
+        <v>-0.2713099156320802</v>
+      </c>
+      <c r="H94">
+        <v>-0.1180612715888349</v>
+      </c>
+      <c r="I94">
+        <v>-0.1768501254296561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.02739816816945494</v>
+        <v>-0.03244740391020331</v>
       </c>
       <c r="C95">
-        <v>0.05741853044504325</v>
+        <v>-0.1074562593385727</v>
       </c>
       <c r="D95">
-        <v>-0.0112932077706871</v>
+        <v>-0.0001916521270891366</v>
       </c>
       <c r="E95">
-        <v>0.03481512048233338</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.03339809618532729</v>
+      </c>
+      <c r="F95">
+        <v>-0.02990972541994229</v>
+      </c>
+      <c r="G95">
+        <v>0.125225773447593</v>
+      </c>
+      <c r="H95">
+        <v>0.05362159976983996</v>
+      </c>
+      <c r="I95">
+        <v>-0.0172556499364261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +3478,109 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.004166549774381236</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.006677620408378758</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.02211338308447675</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.01745121671576574</v>
+      </c>
+      <c r="F97">
+        <v>-0.01650252927820258</v>
+      </c>
+      <c r="G97">
+        <v>0.02122516688850259</v>
+      </c>
+      <c r="H97">
+        <v>-0.009115351385721653</v>
+      </c>
+      <c r="I97">
+        <v>0.01103530487145023</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.07592662814890642</v>
+        <v>-0.1245234059502443</v>
       </c>
       <c r="C98">
-        <v>0.1537398798536568</v>
+        <v>-0.1757006847073933</v>
       </c>
       <c r="D98">
-        <v>-0.02562645587892182</v>
+        <v>0.04566072329786997</v>
       </c>
       <c r="E98">
-        <v>0.05743525905504417</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.02774087242924329</v>
+      </c>
+      <c r="F98">
+        <v>0.06129057839385652</v>
+      </c>
+      <c r="G98">
+        <v>0.3789818932134616</v>
+      </c>
+      <c r="H98">
+        <v>-0.3225573643405725</v>
+      </c>
+      <c r="I98">
+        <v>-0.02185025578864956</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.001694624507087278</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.0005035368983416831</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.003613084302214234</v>
       </c>
       <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.007638891520689067</v>
+      </c>
+      <c r="F99">
+        <v>-0.004083356606281806</v>
+      </c>
+      <c r="G99">
+        <v>0.001015654044075315</v>
+      </c>
+      <c r="H99">
+        <v>0.000522469296948907</v>
+      </c>
+      <c r="I99">
+        <v>0.004389271762697159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002152440387843726</v>
+        <v>-0.003412914816594233</v>
       </c>
       <c r="C101">
-        <v>0.04162165332482588</v>
+        <v>-0.06952679933467062</v>
       </c>
       <c r="D101">
-        <v>-0.07304777333603792</v>
+        <v>0.0121403719081477</v>
       </c>
       <c r="E101">
-        <v>0.09281211620938391</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.116097745982927</v>
+      </c>
+      <c r="F101">
+        <v>0.03533453539703241</v>
+      </c>
+      <c r="G101">
+        <v>0.09196660069032768</v>
+      </c>
+      <c r="H101">
+        <v>0.1961550829903438</v>
+      </c>
+      <c r="I101">
+        <v>-0.06288756973927317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.02419153650396845</v>
+        <v>-0.01051720644432543</v>
       </c>
       <c r="C102">
-        <v>0.1039992135382816</v>
+        <v>-0.05142639080761213</v>
       </c>
       <c r="D102">
-        <v>0.06982844404312052</v>
+        <v>0.02614935389323151</v>
       </c>
       <c r="E102">
-        <v>-0.027600402615372</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.07220979538789747</v>
+      </c>
+      <c r="F102">
+        <v>0.01197617882585694</v>
+      </c>
+      <c r="G102">
+        <v>-0.03837649629793324</v>
+      </c>
+      <c r="H102">
+        <v>0.002817135112132301</v>
+      </c>
+      <c r="I102">
+        <v>-0.001572202734148122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
